--- a/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -40,16 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -61,15 +61,12 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,97 +85,100 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,37 +655,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C4">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>210</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,28 +705,28 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5945945945945946</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5526315789473685</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4497354497354497</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.392156862745098</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3488372093023256</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3389830508474576</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,31 +973,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>85</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>21</v>
-      </c>
-      <c r="M10">
-        <v>21</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,16 +1026,16 @@
         <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2281879194630873</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,87 +1105,63 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.07936507936507936</v>
+        <v>0.006443298969072165</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>232</v>
+        <v>3084</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L13">
-        <v>64</v>
-      </c>
-      <c r="M13">
-        <v>64</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.007407407407407408</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.08</v>
-      </c>
-      <c r="F14">
-        <v>0.92</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3082</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,47 +1173,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L15">
+        <v>109</v>
+      </c>
+      <c r="M15">
+        <v>109</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L15">
-        <v>110</v>
-      </c>
-      <c r="M15">
-        <v>110</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1384,16 +1360,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.66</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,12 +1381,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>0.6507936507936508</v>
@@ -1436,16 +1412,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,12 +1433,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>0.6285714285714286</v>
@@ -1488,16 +1464,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1535,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5389830508474577</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L29">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M29">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4761904761904762</v>
+        <v>0.54</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4606741573033708</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4117647058823529</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,58 +1693,84 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>0.4044943820224719</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>53</v>
-      </c>
-      <c r="K35">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L35">
-        <v>28</v>
-      </c>
-      <c r="M35">
-        <v>28</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K36">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="K37">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>53</v>
       </c>
     </row>
